--- a/biology/Histoire de la zoologie et de la botanique/Altus_Lacy_Quaintance/Altus_Lacy_Quaintance.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Altus_Lacy_Quaintance/Altus_Lacy_Quaintance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Altus Lacy Quaintance est un naturaliste américain, né le 19 décembre 1870 à New Sharon (Iowa) et mort le 7 août 1958 à Lake City (Floride).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences au Florida Agricultural College de l’université de Floride en 1893, un Master of Sciences de l’Institut polytechnique de l’Alabama en 1894 et, au même endroit, un Doctorat of Sciences en 1915. De 1894 à 1902, il enseigne la biologie et l’entomologie à l’université de Floride, puis à la station expérimentale agricole de Géorgie puis est entomologiste à l’université du Maryland. En 1903, il est embauché au département d’entomologie du ministère américain de l’agriculture avant d’être rapidement d’avoir la charge du service de recherche sur les insectes nuisibles des arbres fruitiers dans le nouveau bureau de l’entomologie, fonction qu’il conserve jusqu’à son départ à la retraite en 1930.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 Avec William Moore Scott Spraying peaches for the control of brown-rot, scab, and curculio (U.S. Dept. of Agriculture, 1911).
